--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H2">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I2">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J2">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>77.8126272242115</v>
+        <v>262.4069497536162</v>
       </c>
       <c r="R2">
-        <v>311.250508896846</v>
+        <v>1049.627799014465</v>
       </c>
       <c r="S2">
-        <v>0.02991927639105753</v>
+        <v>0.1036910655842648</v>
       </c>
       <c r="T2">
-        <v>0.01741850500327241</v>
+        <v>0.06637220917350477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H3">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I3">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J3">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>56.15213057138399</v>
+        <v>154.62016935566</v>
       </c>
       <c r="R3">
-        <v>336.9127834283039</v>
+        <v>927.72101613396</v>
       </c>
       <c r="S3">
-        <v>0.02159072600994565</v>
+        <v>0.06109872522950172</v>
       </c>
       <c r="T3">
-        <v>0.01885464227709031</v>
+        <v>0.05866355044646737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H4">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I4">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J4">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>39.966962865471</v>
+        <v>101.0448656452658</v>
       </c>
       <c r="R4">
-        <v>239.801777192826</v>
+        <v>606.269193871595</v>
       </c>
       <c r="S4">
-        <v>0.01536746221198261</v>
+        <v>0.03992824809104389</v>
       </c>
       <c r="T4">
-        <v>0.01342002128970393</v>
+        <v>0.03833685215738372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H5">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I5">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J5">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>66.1490471803935</v>
+        <v>223.9798297569112</v>
       </c>
       <c r="R5">
-        <v>264.596188721574</v>
+        <v>895.919319027645</v>
       </c>
       <c r="S5">
-        <v>0.025434581715029</v>
+        <v>0.08850644862372314</v>
       </c>
       <c r="T5">
-        <v>0.01480759036644985</v>
+        <v>0.05665260057033542</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H6">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I6">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J6">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>57.55586187505199</v>
+        <v>77.92211356342582</v>
       </c>
       <c r="R6">
-        <v>345.3351712503119</v>
+        <v>467.5326813805549</v>
       </c>
       <c r="S6">
-        <v>0.02213046649104015</v>
+        <v>0.03079120806654003</v>
       </c>
       <c r="T6">
-        <v>0.01932598417123568</v>
+        <v>0.02956398158773623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.472803</v>
+        <v>1.3019075</v>
       </c>
       <c r="H7">
-        <v>0.9456059999999999</v>
+        <v>2.603815</v>
       </c>
       <c r="I7">
-        <v>0.1289198617355981</v>
+        <v>0.3683937142813216</v>
       </c>
       <c r="J7">
-        <v>0.09646945066729889</v>
+        <v>0.2921984648839798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>37.651998655105</v>
+        <v>112.3057271516217</v>
       </c>
       <c r="R7">
-        <v>225.91199193063</v>
+        <v>673.8343629097299</v>
       </c>
       <c r="S7">
-        <v>0.01447734891654313</v>
+        <v>0.04437801868624808</v>
       </c>
       <c r="T7">
-        <v>0.01264270755954671</v>
+        <v>0.04260927094855228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.739138</v>
       </c>
       <c r="I8">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J8">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>259.9847988542763</v>
+        <v>318.4001800029196</v>
       </c>
       <c r="R8">
-        <v>1559.908793125658</v>
+        <v>1910.401080017518</v>
       </c>
       <c r="S8">
-        <v>0.09996522841956276</v>
+        <v>0.1258169952347821</v>
       </c>
       <c r="T8">
-        <v>0.08729713957419731</v>
+        <v>0.1208023836709232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.739138</v>
       </c>
       <c r="I9">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J9">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>187.6135132897546</v>
@@ -1013,10 +1013,10 @@
         <v>1688.521619607792</v>
       </c>
       <c r="S9">
-        <v>0.07213817035941102</v>
+        <v>0.07413616571241051</v>
       </c>
       <c r="T9">
-        <v>0.09449469619668788</v>
+        <v>0.1067720483735482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.739138</v>
       </c>
       <c r="I10">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J10">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>133.536203211022</v>
+        <v>122.6061407292438</v>
       </c>
       <c r="R10">
-        <v>1201.825828899198</v>
+        <v>1103.455266563194</v>
       </c>
       <c r="S10">
-        <v>0.05134522139409072</v>
+        <v>0.04844826477090822</v>
       </c>
       <c r="T10">
-        <v>0.06725775096059555</v>
+        <v>0.06977593756063283</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.739138</v>
       </c>
       <c r="I11">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J11">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>221.0148576020003</v>
+        <v>271.7733588176089</v>
       </c>
       <c r="R11">
-        <v>1326.089145612002</v>
+        <v>1630.640152905654</v>
       </c>
       <c r="S11">
-        <v>0.08498112513372315</v>
+        <v>0.1073922363705394</v>
       </c>
       <c r="T11">
-        <v>0.07421189606884517</v>
+        <v>0.103111969230417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.739138</v>
       </c>
       <c r="I12">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J12">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>192.3036106897306</v>
+        <v>94.54938220233176</v>
       </c>
       <c r="R12">
-        <v>1730.732496207576</v>
+        <v>850.9444398209858</v>
       </c>
       <c r="S12">
-        <v>0.07394153217119677</v>
+        <v>0.03736153406035538</v>
       </c>
       <c r="T12">
-        <v>0.09685694250385626</v>
+        <v>0.05380865713337587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.739138</v>
       </c>
       <c r="I13">
-        <v>0.4307424838011595</v>
+        <v>0.4470027377295119</v>
       </c>
       <c r="J13">
-        <v>0.483480476537291</v>
+        <v>0.5318230551991343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>125.8015266417211</v>
+        <v>136.2698807101329</v>
       </c>
       <c r="R13">
-        <v>1132.21373977549</v>
+        <v>1226.428926391196</v>
       </c>
       <c r="S13">
-        <v>0.04837120632317504</v>
+        <v>0.05384754158051637</v>
       </c>
       <c r="T13">
-        <v>0.06336205123310881</v>
+        <v>0.07755205923023721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H14">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I14">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J14">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>25.87769114069867</v>
+        <v>13.54972003399117</v>
       </c>
       <c r="R14">
-        <v>155.266146844192</v>
+        <v>81.298320203947</v>
       </c>
       <c r="S14">
-        <v>0.009950079070972147</v>
+        <v>0.005354221410721772</v>
       </c>
       <c r="T14">
-        <v>0.008689155771117821</v>
+        <v>0.005140821459852147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H15">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I15">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J15">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>18.67418622984533</v>
+        <v>7.984011126018666</v>
       </c>
       <c r="R15">
-        <v>168.067676068608</v>
+        <v>71.856100134168</v>
       </c>
       <c r="S15">
-        <v>0.007180301695493674</v>
+        <v>0.003154911186882893</v>
       </c>
       <c r="T15">
-        <v>0.009405567453898164</v>
+        <v>0.004543751711773762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H16">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I16">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J16">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>13.291579500128</v>
+        <v>5.217581476600111</v>
       </c>
       <c r="R16">
-        <v>119.624215501152</v>
+        <v>46.958233289401</v>
       </c>
       <c r="S16">
-        <v>0.00511066718762976</v>
+        <v>0.002061746396539299</v>
       </c>
       <c r="T16">
-        <v>0.006694527194845234</v>
+        <v>0.002969358933927593</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H17">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I17">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J17">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>21.99880242127467</v>
+        <v>11.5654863154985</v>
       </c>
       <c r="R17">
-        <v>131.992814527648</v>
+        <v>69.39291789299099</v>
       </c>
       <c r="S17">
-        <v>0.008458630345661768</v>
+        <v>0.004570144202279249</v>
       </c>
       <c r="T17">
-        <v>0.007386710815010471</v>
+        <v>0.004387994740495595</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H18">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I18">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J18">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>19.14101695406933</v>
+        <v>4.023608460952111</v>
       </c>
       <c r="R18">
-        <v>172.269152586624</v>
+        <v>36.212476148569</v>
       </c>
       <c r="S18">
-        <v>0.007359800036111963</v>
+        <v>0.00158994359410726</v>
       </c>
       <c r="T18">
-        <v>0.009640694586732661</v>
+        <v>0.002289861266898716</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1572373333333333</v>
+        <v>0.06722566666666667</v>
       </c>
       <c r="H19">
-        <v>0.471712</v>
+        <v>0.201677</v>
       </c>
       <c r="I19">
-        <v>0.04287412574160376</v>
+        <v>0.01902248280954781</v>
       </c>
       <c r="J19">
-        <v>0.04812342298290504</v>
+        <v>0.02263206479815439</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>12.52170536819556</v>
+        <v>5.799050530281556</v>
       </c>
       <c r="R19">
-        <v>112.69534831376</v>
+        <v>52.19145477253399</v>
       </c>
       <c r="S19">
-        <v>0.00481464740573445</v>
+        <v>0.002291516019017341</v>
       </c>
       <c r="T19">
-        <v>0.006306767161300689</v>
+        <v>0.003300276685206582</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H20">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I20">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J20">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>119.7005872459658</v>
+        <v>78.406801335544</v>
       </c>
       <c r="R20">
-        <v>478.8023489838631</v>
+        <v>313.627205342176</v>
       </c>
       <c r="S20">
-        <v>0.04602536993982389</v>
+        <v>0.03098273421176517</v>
       </c>
       <c r="T20">
-        <v>0.02679520474010867</v>
+        <v>0.01983191612780996</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H21">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I21">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J21">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>86.379849187452</v>
+        <v>46.200273706624</v>
       </c>
       <c r="R21">
-        <v>518.2790951247119</v>
+        <v>277.201642239744</v>
       </c>
       <c r="S21">
-        <v>0.03321340860282759</v>
+        <v>0.01825620706853444</v>
       </c>
       <c r="T21">
-        <v>0.02900444096788037</v>
+        <v>0.01752858051134922</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H22">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I22">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J22">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>61.4819097631755</v>
+        <v>30.19205365583467</v>
       </c>
       <c r="R22">
-        <v>368.891458579053</v>
+        <v>181.152321935008</v>
       </c>
       <c r="S22">
-        <v>0.02364004811139631</v>
+        <v>0.01193050038762416</v>
       </c>
       <c r="T22">
-        <v>0.02064426413212141</v>
+        <v>0.01145499367968886</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H23">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I23">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J23">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>101.7582887985368</v>
+        <v>66.92483576143201</v>
       </c>
       <c r="R23">
-        <v>407.033155194147</v>
+        <v>267.699343045728</v>
       </c>
       <c r="S23">
-        <v>0.03912648211802267</v>
+        <v>0.02644559353580596</v>
       </c>
       <c r="T23">
-        <v>0.02277878701427836</v>
+        <v>0.01692771171735707</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H24">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I24">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J24">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>88.539234718806</v>
+        <v>23.28301016245867</v>
       </c>
       <c r="R24">
-        <v>531.2354083128359</v>
+        <v>139.698060974752</v>
       </c>
       <c r="S24">
-        <v>0.03404370125393253</v>
+        <v>0.009200366590981775</v>
       </c>
       <c r="T24">
-        <v>0.02972951482202818</v>
+        <v>0.008833673167626807</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7273215000000001</v>
+        <v>0.389008</v>
       </c>
       <c r="H25">
-        <v>1.454643</v>
+        <v>0.778016</v>
       </c>
       <c r="I25">
-        <v>0.1983197805794968</v>
+        <v>0.1100754869337095</v>
       </c>
       <c r="J25">
-        <v>0.1484007198844251</v>
+        <v>0.08730846118298513</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>57.92075798975251</v>
+        <v>33.55678211224533</v>
       </c>
       <c r="R25">
-        <v>347.5245479385151</v>
+        <v>201.340692673472</v>
       </c>
       <c r="S25">
-        <v>0.0222707705534938</v>
+        <v>0.01326008513899797</v>
       </c>
       <c r="T25">
-        <v>0.0194485082080081</v>
+        <v>0.01273158597915322</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H26">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I26">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J26">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>79.59362758647232</v>
+        <v>28.79136626490117</v>
       </c>
       <c r="R26">
-        <v>477.561765518834</v>
+        <v>172.748197589407</v>
       </c>
       <c r="S26">
-        <v>0.03060407838260982</v>
+        <v>0.01137701364402721</v>
       </c>
       <c r="T26">
-        <v>0.02672577799645715</v>
+        <v>0.01092356692107013</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H27">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I27">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J27">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>57.43735854089066</v>
+        <v>16.96496960937867</v>
       </c>
       <c r="R27">
-        <v>516.9362268680159</v>
+        <v>152.684726484408</v>
       </c>
       <c r="S27">
-        <v>0.02208490146985382</v>
+        <v>0.006703769766970125</v>
       </c>
       <c r="T27">
-        <v>0.02892929006280748</v>
+        <v>0.009654872530374772</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H28">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I28">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J28">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>40.88173952680599</v>
+        <v>11.08667182295344</v>
       </c>
       <c r="R28">
-        <v>367.935655741254</v>
+        <v>99.78004640658101</v>
       </c>
       <c r="S28">
-        <v>0.01571919761461472</v>
+        <v>0.004380938904950794</v>
       </c>
       <c r="T28">
-        <v>0.02059077456009998</v>
+        <v>0.006309495725682796</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H29">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I29">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J29">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>67.66308778272433</v>
+        <v>24.5751315677285</v>
       </c>
       <c r="R29">
-        <v>405.978526696346</v>
+        <v>147.450789406371</v>
       </c>
       <c r="S29">
-        <v>0.02601673657683432</v>
+        <v>0.009710953088414357</v>
       </c>
       <c r="T29">
-        <v>0.02271976686414062</v>
+        <v>0.009323909529136989</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H30">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I30">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J30">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>58.87321889673866</v>
+        <v>8.549636790665444</v>
       </c>
       <c r="R30">
-        <v>529.858970070648</v>
+        <v>76.946731115989</v>
       </c>
       <c r="S30">
-        <v>0.02263699570414555</v>
+        <v>0.003378420236258686</v>
       </c>
       <c r="T30">
-        <v>0.02965248524063658</v>
+        <v>0.004865652889189025</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4836246666666666</v>
+        <v>0.1428456666666667</v>
       </c>
       <c r="H31">
-        <v>1.450874</v>
+        <v>0.428537</v>
       </c>
       <c r="I31">
-        <v>0.1318706208687157</v>
+        <v>0.04042026465960516</v>
       </c>
       <c r="J31">
-        <v>0.1480162115801577</v>
+        <v>0.04809014985549512</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>38.51378967330778</v>
+        <v>12.32221679762822</v>
       </c>
       <c r="R31">
-        <v>346.62410705977</v>
+        <v>110.899951178654</v>
       </c>
       <c r="S31">
-        <v>0.01480871112065744</v>
+        <v>0.004869169018983989</v>
       </c>
       <c r="T31">
-        <v>0.01939811685601591</v>
+        <v>0.007012652260041418</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H32">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I32">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J32">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>40.60428474139933</v>
+        <v>10.74527325196417</v>
       </c>
       <c r="R32">
-        <v>243.625708448396</v>
+        <v>64.471639511785</v>
       </c>
       <c r="S32">
-        <v>0.01561251510424679</v>
+        <v>0.004246034011433066</v>
       </c>
       <c r="T32">
-        <v>0.01363401986578141</v>
+        <v>0.00407680241267697</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H33">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I33">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J33">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>29.30137665172266</v>
+        <v>6.331524266226666</v>
       </c>
       <c r="R33">
-        <v>263.712389865504</v>
+        <v>56.98371839604</v>
       </c>
       <c r="S33">
-        <v>0.01126650028349886</v>
+        <v>0.002501924962559516</v>
       </c>
       <c r="T33">
-        <v>0.01475813035158624</v>
+        <v>0.003603310888314169</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H34">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I34">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J34">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>20.855611721764</v>
+        <v>4.137675061906111</v>
       </c>
       <c r="R34">
-        <v>187.700505495876</v>
+        <v>37.239075557155</v>
       </c>
       <c r="S34">
-        <v>0.008019068802420317</v>
+        <v>0.001635017428514469</v>
       </c>
       <c r="T34">
-        <v>0.0105042790313324</v>
+        <v>0.002354777297846109</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H35">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I35">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J35">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>34.51798047308733</v>
+        <v>9.171725352267499</v>
       </c>
       <c r="R35">
-        <v>207.107882838524</v>
+        <v>55.030352113605</v>
       </c>
       <c r="S35">
-        <v>0.01327230598781382</v>
+        <v>0.003624240805801017</v>
       </c>
       <c r="T35">
-        <v>0.01159037363898923</v>
+        <v>0.0034797916411944</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H36">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I36">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J36">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>30.03387351743466</v>
+        <v>3.190824036466111</v>
       </c>
       <c r="R36">
-        <v>270.304861656912</v>
+        <v>28.717416328195</v>
       </c>
       <c r="S36">
-        <v>0.0115481483522329</v>
+        <v>0.001260865784018726</v>
       </c>
       <c r="T36">
-        <v>0.01512706469739523</v>
+        <v>0.001815918333381824</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.2467186666666667</v>
+        <v>0.05331166666666667</v>
       </c>
       <c r="H37">
-        <v>0.740156</v>
+        <v>0.159935</v>
       </c>
       <c r="I37">
-        <v>0.06727312727342631</v>
+        <v>0.01508531358630399</v>
       </c>
       <c r="J37">
-        <v>0.07550971834792217</v>
+        <v>0.01794780408025121</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>19.64761413426445</v>
+        <v>4.598794838085555</v>
       </c>
       <c r="R37">
-        <v>176.82852720838</v>
+        <v>41.38915354277</v>
       </c>
       <c r="S37">
-        <v>0.007554588743213628</v>
+        <v>0.001817230593977193</v>
       </c>
       <c r="T37">
-        <v>0.009895850762837648</v>
+        <v>0.002617203506837739</v>
       </c>
     </row>
   </sheetData>
